--- a/data/trans_orig/P36B07-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P36B07-Edad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>74456</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>60150</v>
+        <v>59918</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>91584</v>
+        <v>90905</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1787722160796434</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1444235938942337</v>
+        <v>0.1438654762109287</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2198977989800868</v>
+        <v>0.2182670851454652</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>109</v>
@@ -762,19 +762,19 @@
         <v>105631</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>88750</v>
+        <v>89382</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>123059</v>
+        <v>123925</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2681015221869403</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.225254900435064</v>
+        <v>0.2268610906738051</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3123348475125403</v>
+        <v>0.3145339455598617</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>182</v>
@@ -783,19 +783,19 @@
         <v>180087</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>158701</v>
+        <v>158401</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>208416</v>
+        <v>206732</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2221976618774892</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1958108043105708</v>
+        <v>0.1954411633590417</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2571514444070148</v>
+        <v>0.2550736930552893</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>63123</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>49118</v>
+        <v>48564</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>79169</v>
+        <v>78038</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1515615999237921</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1179340371023393</v>
+        <v>0.1166043606682215</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1900892555942534</v>
+        <v>0.1873737188306679</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>67</v>
@@ -833,19 +833,19 @@
         <v>65602</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>51857</v>
+        <v>50974</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>80172</v>
+        <v>79779</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1665046025234373</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1316184784626972</v>
+        <v>0.1293776383487958</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2034844074249557</v>
+        <v>0.202487216639409</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>127</v>
@@ -854,19 +854,19 @@
         <v>128725</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>108633</v>
+        <v>107413</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>151734</v>
+        <v>150154</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1588258066855522</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1340354825988496</v>
+        <v>0.1325298021966761</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1872146119553882</v>
+        <v>0.1852652394611041</v>
       </c>
     </row>
     <row r="6">
@@ -883,19 +883,19 @@
         <v>104604</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>86530</v>
+        <v>87828</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>123569</v>
+        <v>123662</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2511592902146418</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2077644589323649</v>
+        <v>0.2108791302252186</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2966954585648097</v>
+        <v>0.2969195646527955</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>78</v>
@@ -904,19 +904,19 @@
         <v>76330</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>62065</v>
+        <v>62263</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>91668</v>
+        <v>91946</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1937322346358779</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1575271826837878</v>
+        <v>0.1580298740917531</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.232661255257889</v>
+        <v>0.2333677964696766</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>175</v>
@@ -925,19 +925,19 @@
         <v>180933</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>159949</v>
+        <v>158422</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>206991</v>
+        <v>206482</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2232424105472895</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1973517560153662</v>
+        <v>0.1954675603835712</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2553939285571805</v>
+        <v>0.25476528632828</v>
       </c>
     </row>
     <row r="7">
@@ -954,19 +954,19 @@
         <v>84316</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>67912</v>
+        <v>69059</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>102584</v>
+        <v>102733</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2024480565230545</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1630611734288923</v>
+        <v>0.1658154840097169</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2463110722680488</v>
+        <v>0.2466675145810801</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>68</v>
@@ -975,19 +975,19 @@
         <v>67541</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>54624</v>
+        <v>52252</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>82561</v>
+        <v>82498</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1714250153536137</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.138641697526022</v>
+        <v>0.1326205401764425</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2095475049506759</v>
+        <v>0.2093887520431173</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>147</v>
@@ -996,19 +996,19 @@
         <v>151857</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>130936</v>
+        <v>130656</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>176398</v>
+        <v>176418</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1873668983735696</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1615543153568675</v>
+        <v>0.1612087457028935</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2176464182348028</v>
+        <v>0.2176714838696477</v>
       </c>
     </row>
     <row r="8">
@@ -1025,19 +1025,19 @@
         <v>89985</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>72336</v>
+        <v>72920</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>108897</v>
+        <v>109245</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2160588372588682</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.173682853624211</v>
+        <v>0.1750854032965291</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.261467137119929</v>
+        <v>0.262302433481188</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>80</v>
@@ -1046,19 +1046,19 @@
         <v>78892</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>64792</v>
+        <v>65009</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>96871</v>
+        <v>94994</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2002366253001307</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1644481574654799</v>
+        <v>0.1649994646625176</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2458682387366988</v>
+        <v>0.2411028306452649</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>162</v>
@@ -1067,19 +1067,19 @@
         <v>168877</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>145839</v>
+        <v>146111</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>194398</v>
+        <v>192023</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2083672225160995</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1799419064772157</v>
+        <v>0.1802775119484261</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2398559791943342</v>
+        <v>0.2369248512348125</v>
       </c>
     </row>
     <row r="9">
@@ -1171,19 +1171,19 @@
         <v>107658</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>90001</v>
+        <v>90172</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>126490</v>
+        <v>126146</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1832520524421468</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1531969613719427</v>
+        <v>0.1534881455188815</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2153073108230223</v>
+        <v>0.2147216587424588</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>119</v>
@@ -1192,19 +1192,19 @@
         <v>117665</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>97114</v>
+        <v>99905</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>136596</v>
+        <v>140134</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2105371670434557</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1737659255688869</v>
+        <v>0.1787594538003087</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2444107930563445</v>
+        <v>0.2507419604326953</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>223</v>
@@ -1213,19 +1213,19 @@
         <v>225323</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>199203</v>
+        <v>196660</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>251110</v>
+        <v>249605</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.196554149394727</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.173768908140804</v>
+        <v>0.1715505488749549</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2190487415117075</v>
+        <v>0.2177356955831494</v>
       </c>
     </row>
     <row r="11">
@@ -1242,19 +1242,19 @@
         <v>110395</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>92075</v>
+        <v>92268</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>129414</v>
+        <v>130616</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1879098074237071</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.15672638240315</v>
+        <v>0.1570555052752327</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2202841225684814</v>
+        <v>0.2223292812431218</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>105</v>
@@ -1263,19 +1263,19 @@
         <v>100727</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>83737</v>
+        <v>84409</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>119557</v>
+        <v>117452</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1802312859111373</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1498304157085698</v>
+        <v>0.1510327439328261</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2139221701194529</v>
+        <v>0.2101565213242542</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>211</v>
@@ -1284,19 +1284,19 @@
         <v>211122</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>184826</v>
+        <v>188128</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>235934</v>
+        <v>238988</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.184166358326822</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.1612275444692435</v>
+        <v>0.1641083666276524</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2058097665830484</v>
+        <v>0.2084744514331155</v>
       </c>
     </row>
     <row r="12">
@@ -1313,19 +1313,19 @@
         <v>142661</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>123284</v>
+        <v>123548</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>163227</v>
+        <v>166459</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2428321694997405</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2098493668729497</v>
+        <v>0.2102983987559269</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2778380705819056</v>
+        <v>0.2833409914465915</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>118</v>
@@ -1334,19 +1334,19 @@
         <v>115361</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>96031</v>
+        <v>97149</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>134857</v>
+        <v>134589</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2064158156463282</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1718287317545581</v>
+        <v>0.1738289425303226</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2412984372279876</v>
+        <v>0.2408204044098562</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>251</v>
@@ -1355,19 +1355,19 @@
         <v>258022</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>231481</v>
+        <v>231302</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>287462</v>
+        <v>286994</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2250783914161286</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2019258994833693</v>
+        <v>0.2017699040391831</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2507587621952458</v>
+        <v>0.2503506110932111</v>
       </c>
     </row>
     <row r="13">
@@ -1384,19 +1384,19 @@
         <v>123028</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>104235</v>
+        <v>104370</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>143696</v>
+        <v>142977</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2094135013057433</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1774257307228314</v>
+        <v>0.1776553104079994</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2445932784409459</v>
+        <v>0.2433701218886714</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>121</v>
@@ -1405,19 +1405,19 @@
         <v>115481</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>97977</v>
+        <v>96852</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>133926</v>
+        <v>135695</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2066299470536426</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1753089779769322</v>
+        <v>0.1732964735724443</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.239633654256072</v>
+        <v>0.2427979828835581</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>242</v>
@@ -1426,19 +1426,19 @@
         <v>238509</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>212703</v>
+        <v>214828</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>266153</v>
+        <v>266720</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2080564570317774</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1855450929380721</v>
+        <v>0.1873989629823563</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2321711919088246</v>
+        <v>0.2326655165905582</v>
       </c>
     </row>
     <row r="14">
@@ -1455,19 +1455,19 @@
         <v>103746</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>87206</v>
+        <v>86272</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>121520</v>
+        <v>123648</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1765924693286623</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1484382832036893</v>
+        <v>0.1468489076103854</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2068460085121395</v>
+        <v>0.2104683665705777</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>111</v>
@@ -1476,19 +1476,19 @@
         <v>109644</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>91352</v>
+        <v>91677</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>127285</v>
+        <v>127426</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1961857843454361</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1634549516651239</v>
+        <v>0.1640368389513759</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2277505187271748</v>
+        <v>0.2280020665291002</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>211</v>
@@ -1497,19 +1497,19 @@
         <v>213390</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>187794</v>
+        <v>188053</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>240040</v>
+        <v>240565</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.186144643830545</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1638164595615871</v>
+        <v>0.1640425272151929</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2093921587039289</v>
+        <v>0.2098498267933699</v>
       </c>
     </row>
     <row r="15">
@@ -1601,19 +1601,19 @@
         <v>153782</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>131828</v>
+        <v>130071</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>175698</v>
+        <v>176170</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2324825127703495</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1992936330684381</v>
+        <v>0.1966369856908282</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.265614208335988</v>
+        <v>0.266328775202972</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>113</v>
@@ -1622,19 +1622,19 @@
         <v>110763</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>94166</v>
+        <v>93413</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>131143</v>
+        <v>130660</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1691989839294374</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1438462096403863</v>
+        <v>0.1426954012899077</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2003318656604652</v>
+        <v>0.1995941081370316</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>262</v>
@@ -1643,19 +1643,19 @@
         <v>264544</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>236882</v>
+        <v>236962</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>297636</v>
+        <v>293844</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.201005367843854</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1799870256147732</v>
+        <v>0.1800475911199945</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2261487967309229</v>
+        <v>0.2232678789479506</v>
       </c>
     </row>
     <row r="17">
@@ -1672,19 +1672,19 @@
         <v>131509</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>112315</v>
+        <v>109781</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>153907</v>
+        <v>153027</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.198811790424692</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1697944717633133</v>
+        <v>0.1659641429240732</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2326721449987187</v>
+        <v>0.2313411351615146</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>114</v>
@@ -1693,19 +1693,19 @@
         <v>112009</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>93976</v>
+        <v>94868</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>134398</v>
+        <v>132285</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.171102875003989</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1435561632328473</v>
+        <v>0.1449181765443122</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.20530370929091</v>
+        <v>0.2020766004936279</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>237</v>
@@ -1714,19 +1714,19 @@
         <v>243518</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>215206</v>
+        <v>214922</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>273051</v>
+        <v>273015</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1850294119380864</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1635170384027805</v>
+        <v>0.1633011615876345</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2074686947354984</v>
+        <v>0.2074415600644639</v>
       </c>
     </row>
     <row r="18">
@@ -1743,19 +1743,19 @@
         <v>142221</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>123271</v>
+        <v>122699</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>163863</v>
+        <v>165795</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2150056147128352</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1863575077526847</v>
+        <v>0.1854921684099315</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.247723042902638</v>
+        <v>0.2506433493965234</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>163</v>
@@ -1764,19 +1764,19 @@
         <v>159638</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>138658</v>
+        <v>137534</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>182403</v>
+        <v>183168</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2438599665892937</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2118113811951294</v>
+        <v>0.2100944522733521</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2786356774180557</v>
+        <v>0.2798042698448018</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>302</v>
@@ -1785,19 +1785,19 @@
         <v>301859</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>270101</v>
+        <v>272795</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>332059</v>
+        <v>334388</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2293577318025543</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2052275213126061</v>
+        <v>0.2072743182118101</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2523043606859656</v>
+        <v>0.2540734434258857</v>
       </c>
     </row>
     <row r="19">
@@ -1814,19 +1814,19 @@
         <v>127380</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>107859</v>
+        <v>108013</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>149258</v>
+        <v>149889</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.19256970916004</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1630579929117551</v>
+        <v>0.1632902919103324</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2256441260132126</v>
+        <v>0.2265969350111225</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>131</v>
@@ -1835,19 +1835,19 @@
         <v>131423</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>111858</v>
+        <v>112165</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>152251</v>
+        <v>151915</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2007601756762595</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.170872977629144</v>
+        <v>0.1713407835710826</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2325766120231341</v>
+        <v>0.2320634272583909</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>252</v>
@@ -1856,19 +1856,19 @@
         <v>258804</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>230536</v>
+        <v>230480</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>288832</v>
+        <v>287566</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1966436365510798</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1751650963249636</v>
+        <v>0.1751226351089003</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2194594339134105</v>
+        <v>0.2184978675062189</v>
       </c>
     </row>
     <row r="20">
@@ -1885,19 +1885,19 @@
         <v>106584</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>85286</v>
+        <v>87431</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>125906</v>
+        <v>126449</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1611303729320832</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1289327802725827</v>
+        <v>0.1321754308675491</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.190340837985178</v>
+        <v>0.191162281101835</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>138</v>
@@ -1906,19 +1906,19 @@
         <v>140796</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>120460</v>
+        <v>119186</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>162844</v>
+        <v>162499</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2150779988010203</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1840119335380145</v>
+        <v>0.1820663233702463</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.248757944011637</v>
+        <v>0.2482305412602156</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>237</v>
@@ -1927,19 +1927,19 @@
         <v>247380</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>220732</v>
+        <v>217582</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>277635</v>
+        <v>277996</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1879638518644255</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1677162025150134</v>
+        <v>0.1653225568486444</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.210951856494743</v>
+        <v>0.2112264585889175</v>
       </c>
     </row>
     <row r="21">
@@ -2031,19 +2031,19 @@
         <v>166333</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>142684</v>
+        <v>142682</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>188873</v>
+        <v>190469</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2601546377861063</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2231663375918432</v>
+        <v>0.2231634397050715</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.295407829941831</v>
+        <v>0.2979041232610499</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>163</v>
@@ -2052,19 +2052,19 @@
         <v>175208</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>151567</v>
+        <v>153208</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>196233</v>
+        <v>198320</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2715057498514968</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2348711722911259</v>
+        <v>0.2374132346865442</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3040853652616044</v>
+        <v>0.307319653448299</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>313</v>
@@ -2073,19 +2073,19 @@
         <v>341542</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>307809</v>
+        <v>310513</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>373045</v>
+        <v>377946</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2658565123158013</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2395990592716393</v>
+        <v>0.2417040004097248</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2903784299258909</v>
+        <v>0.2941937252631732</v>
       </c>
     </row>
     <row r="23">
@@ -2102,19 +2102,19 @@
         <v>136609</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>113094</v>
+        <v>116071</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>158066</v>
+        <v>158781</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2136640719664739</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1768861923254958</v>
+        <v>0.1815411068500762</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.247224249517506</v>
+        <v>0.2483423742987799</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>113</v>
@@ -2123,19 +2123,19 @@
         <v>121702</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>102029</v>
+        <v>102332</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>142744</v>
+        <v>144637</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1885906859781394</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1581060335827336</v>
+        <v>0.1585759073659368</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.2211989680783131</v>
+        <v>0.2241313173104796</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>237</v>
@@ -2144,19 +2144,19 @@
         <v>258310</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>230343</v>
+        <v>228000</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>290676</v>
+        <v>288547</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2010692442424136</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1792991673960379</v>
+        <v>0.1774759183427439</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2262627756239179</v>
+        <v>0.2246051501557288</v>
       </c>
     </row>
     <row r="24">
@@ -2173,19 +2173,19 @@
         <v>125735</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>106684</v>
+        <v>106482</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>149834</v>
+        <v>152671</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1966572869299225</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1668605666161607</v>
+        <v>0.166544521830867</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.234348713821823</v>
+        <v>0.2387862002095193</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>112</v>
@@ -2194,19 +2194,19 @@
         <v>122450</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>103494</v>
+        <v>104341</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>141606</v>
+        <v>144483</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1897501256246628</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1603762069334628</v>
+        <v>0.1616890895208255</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2194354558210267</v>
+        <v>0.2238930397934347</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>228</v>
@@ -2215,19 +2215,19 @@
         <v>248185</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>220066</v>
+        <v>218872</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>277945</v>
+        <v>280214</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1931876914495787</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1713000711221746</v>
+        <v>0.1703704980247159</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.216352493410447</v>
+        <v>0.2181193351345498</v>
       </c>
     </row>
     <row r="25">
@@ -2244,19 +2244,19 @@
         <v>96142</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>78859</v>
+        <v>78417</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>116208</v>
+        <v>115592</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1503713874274519</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1233395761947934</v>
+        <v>0.1226486032222165</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.1817565190819158</v>
+        <v>0.1807924786654769</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>109</v>
@@ -2265,19 +2265,19 @@
         <v>116646</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>97595</v>
+        <v>98931</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>135916</v>
+        <v>139935</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.1807570019185379</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.1512342674972015</v>
+        <v>0.1533053233211218</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2106170205822663</v>
+        <v>0.2168451848067055</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>197</v>
@@ -2286,19 +2286,19 @@
         <v>212788</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>184196</v>
+        <v>186421</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>237151</v>
+        <v>244820</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.1656346462463043</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.1433783638904031</v>
+        <v>0.1451103776898141</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.1845983407521361</v>
+        <v>0.1905684133637124</v>
       </c>
     </row>
     <row r="26">
@@ -2315,19 +2315,19 @@
         <v>114544</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>95651</v>
+        <v>95480</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>137252</v>
+        <v>138101</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1791526158900455</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1496036469861936</v>
+        <v>0.1493355866874118</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2146694472392956</v>
+        <v>0.2159983642881837</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>102</v>
@@ -2336,19 +2336,19 @@
         <v>109315</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>91602</v>
+        <v>91132</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>128337</v>
+        <v>131502</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1693964366271631</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.141948222709165</v>
+        <v>0.1412194763209342</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.1988726353731519</v>
+        <v>0.2037780455461541</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>200</v>
@@ -2357,19 +2357,19 @@
         <v>223859</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>197825</v>
+        <v>195039</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>254436</v>
+        <v>252421</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1742519057459021</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1539874691829563</v>
+        <v>0.1518188343920487</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1980533440147248</v>
+        <v>0.1964846606359231</v>
       </c>
     </row>
     <row r="27">
@@ -2461,19 +2461,19 @@
         <v>130396</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>111091</v>
+        <v>111997</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>149453</v>
+        <v>153711</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.275358746347656</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.2345922052675655</v>
+        <v>0.236505570669694</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.3156029673523832</v>
+        <v>0.3245947503642209</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>103</v>
@@ -2482,19 +2482,19 @@
         <v>116754</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>97018</v>
+        <v>98345</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>137264</v>
+        <v>138446</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.2360037756190262</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.1961088185176977</v>
+        <v>0.1987930286017185</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.277462001832412</v>
+        <v>0.2798520353699273</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>219</v>
@@ -2503,19 +2503,19 @@
         <v>247150</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>219382</v>
+        <v>219212</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>274101</v>
+        <v>274742</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.2552511395290622</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.2265731403388369</v>
+        <v>0.2263976449222859</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.2830854265015215</v>
+        <v>0.2837477862225179</v>
       </c>
     </row>
     <row r="29">
@@ -2532,19 +2532,19 @@
         <v>89491</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>72165</v>
+        <v>72389</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>108709</v>
+        <v>108431</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1889798685856771</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1523912095174549</v>
+        <v>0.1528658179181287</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.229562510504849</v>
+        <v>0.2289753348831429</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>86</v>
@@ -2553,19 +2553,19 @@
         <v>102272</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>85230</v>
+        <v>84141</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>123897</v>
+        <v>123189</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.2067303240630239</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.1722815440370247</v>
+        <v>0.1700794829604416</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.250443043458946</v>
+        <v>0.2490100713781999</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>168</v>
@@ -2574,19 +2574,19 @@
         <v>191763</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>165372</v>
+        <v>166518</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>217167</v>
+        <v>218014</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.1980490960042556</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.1707925929430624</v>
+        <v>0.1719761180353567</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.2242856959558297</v>
+        <v>0.2251604531183909</v>
       </c>
     </row>
     <row r="30">
@@ -2603,19 +2603,19 @@
         <v>101678</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>83153</v>
+        <v>83938</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>119368</v>
+        <v>122209</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2147156443754709</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1755951277539597</v>
+        <v>0.1772534209631598</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2520707775225117</v>
+        <v>0.2580707423602169</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>98</v>
@@ -2624,19 +2624,19 @@
         <v>110273</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>93006</v>
+        <v>93032</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>130334</v>
+        <v>131277</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2229032193746841</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1879994498359016</v>
+        <v>0.1880534209867609</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2634542703831916</v>
+        <v>0.265358973098425</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>188</v>
@@ -2645,19 +2645,19 @@
         <v>211952</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>185334</v>
+        <v>187679</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>238787</v>
+        <v>240404</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2188989161664002</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1914093196049604</v>
+        <v>0.1938310914993686</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2466142265149403</v>
+        <v>0.248283522870396</v>
       </c>
     </row>
     <row r="31">
@@ -2674,19 +2674,19 @@
         <v>82604</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>66530</v>
+        <v>66658</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>101965</v>
+        <v>101633</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1744368117202094</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1404933552901891</v>
+        <v>0.1407628547734351</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2153213870736452</v>
+        <v>0.2146209032054231</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>65</v>
@@ -2695,19 +2695,19 @@
         <v>74265</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>58679</v>
+        <v>57895</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>91628</v>
+        <v>89865</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.1501171552560083</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.1186125012306555</v>
+        <v>0.1170272087905197</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.1852144925560364</v>
+        <v>0.1816515445916842</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>137</v>
@@ -2716,19 +2716,19 @@
         <v>156869</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>134609</v>
+        <v>134425</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>185258</v>
+        <v>183548</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.1620111871779534</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.1390216861041581</v>
+        <v>0.138830765655293</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.1913303668133629</v>
+        <v>0.1895641116171448</v>
       </c>
     </row>
     <row r="32">
@@ -2745,19 +2745,19 @@
         <v>69379</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>54611</v>
+        <v>53846</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>86860</v>
+        <v>87384</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1465089289709866</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1153230442132934</v>
+        <v>0.1137072090658503</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1834233931142209</v>
+        <v>0.1845312131792711</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>79</v>
@@ -2766,19 +2766,19 @@
         <v>91149</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>74494</v>
+        <v>72290</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>111114</v>
+        <v>110687</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.1842455256872576</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.1505804391738803</v>
+        <v>0.1461253804427643</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2246029877693225</v>
+        <v>0.2237393444577815</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>139</v>
@@ -2787,19 +2787,19 @@
         <v>160528</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>137111</v>
+        <v>136981</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>187694</v>
+        <v>184186</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.1657896611223286</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1416051332148135</v>
+        <v>0.1414712630640776</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.1938459753294997</v>
+        <v>0.1902230989910113</v>
       </c>
     </row>
     <row r="33">
@@ -2891,19 +2891,19 @@
         <v>103892</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>88471</v>
+        <v>87402</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>122337</v>
+        <v>121472</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.312263602412918</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.2659126221386197</v>
+        <v>0.2626997669528631</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.3677026160729049</v>
+        <v>0.3651024357615439</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>95</v>
@@ -2912,19 +2912,19 @@
         <v>98080</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>81021</v>
+        <v>82319</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>114665</v>
+        <v>118080</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.2619120652443622</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.2163573598403019</v>
+        <v>0.2198246756329864</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.3062020479372045</v>
+        <v>0.3153207609790816</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>195</v>
@@ -2933,19 +2933,19 @@
         <v>201972</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>178040</v>
+        <v>178162</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>226928</v>
+        <v>226593</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.2856007854753858</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.2517601016059359</v>
+        <v>0.2519326633973803</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.320890939590976</v>
+        <v>0.3204162677477379</v>
       </c>
     </row>
     <row r="35">
@@ -2962,19 +2962,19 @@
         <v>63352</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>49808</v>
+        <v>50743</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>80260</v>
+        <v>80481</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1904139615439426</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.1497046775615025</v>
+        <v>0.1525148314614503</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2412340179879011</v>
+        <v>0.2418983565103841</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>65</v>
@@ -2983,19 +2983,19 @@
         <v>70265</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>57129</v>
+        <v>55798</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>86896</v>
+        <v>87478</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.1876366510802884</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.1525574797306637</v>
+        <v>0.1490028135894371</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.2320474575579996</v>
+        <v>0.2336009764424706</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>128</v>
@@ -3004,19 +3004,19 @@
         <v>133617</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>114289</v>
+        <v>115048</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>155234</v>
+        <v>156554</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.1889432830972606</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.161611162479943</v>
+        <v>0.1626849747847937</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.2195105414182791</v>
+        <v>0.2213774445300475</v>
       </c>
     </row>
     <row r="36">
@@ -3033,19 +3033,19 @@
         <v>58859</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>46747</v>
+        <v>45021</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>74343</v>
+        <v>73532</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.1769107786248807</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.1405068193177239</v>
+        <v>0.1353185556809974</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2234502521421675</v>
+        <v>0.2210115295308386</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>74</v>
@@ -3054,19 +3054,19 @@
         <v>80355</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>64779</v>
+        <v>64646</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>96918</v>
+        <v>98468</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2145811081064534</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1729865884005506</v>
+        <v>0.1726315798206555</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2588093306841259</v>
+        <v>0.2629484242334617</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>130</v>
@@ -3075,19 +3075,19 @@
         <v>139215</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>118590</v>
+        <v>117053</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>162589</v>
+        <v>161119</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.1968584734803803</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1676940798864309</v>
+        <v>0.1655197324775189</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2299110123185468</v>
+        <v>0.2278321563820071</v>
       </c>
     </row>
     <row r="37">
@@ -3104,19 +3104,19 @@
         <v>56243</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>43392</v>
+        <v>44012</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>70069</v>
+        <v>71119</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1690476695534149</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1304211075654331</v>
+        <v>0.1322841506454171</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2106024111542837</v>
+        <v>0.2137588340801051</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>55</v>
@@ -3125,19 +3125,19 @@
         <v>58693</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>46001</v>
+        <v>43938</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>75812</v>
+        <v>73794</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.1567339314482993</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.1228405107150497</v>
+        <v>0.1173321487228128</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.2024483348192435</v>
+        <v>0.1970597642378442</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>111</v>
@@ -3146,19 +3146,19 @@
         <v>114936</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>93619</v>
+        <v>96810</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>133982</v>
+        <v>136332</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.16252713486121</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.1323835169064976</v>
+        <v>0.1368952287634634</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.1894592364990877</v>
+        <v>0.1927821032386462</v>
       </c>
     </row>
     <row r="38">
@@ -3175,19 +3175,19 @@
         <v>50360</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>38128</v>
+        <v>38388</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>66429</v>
+        <v>65241</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.1513639878648439</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1146005583014366</v>
+        <v>0.1153821800792393</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1996642106859368</v>
+        <v>0.1960916092502168</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>62</v>
@@ -3196,19 +3196,19 @@
         <v>67082</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>51626</v>
+        <v>52239</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>84358</v>
+        <v>85027</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.1791362441205967</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.1378607150070933</v>
+        <v>0.1394979215755669</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.2252705278989332</v>
+        <v>0.227056605512252</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>111</v>
@@ -3217,19 +3217,19 @@
         <v>117442</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>97804</v>
+        <v>98889</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>139174</v>
+        <v>140169</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.1660703230857634</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.1383012468410317</v>
+        <v>0.1398347598358343</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.1968015118462082</v>
+        <v>0.198208041686557</v>
       </c>
     </row>
     <row r="39">
@@ -3321,19 +3321,19 @@
         <v>88107</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>74340</v>
+        <v>74987</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>101560</v>
+        <v>102626</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.3461313178200197</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.2920441345658967</v>
+        <v>0.2945880284766764</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.3989796869619829</v>
+        <v>0.4031677965312837</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>83</v>
@@ -3342,19 +3342,19 @@
         <v>109761</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>91245</v>
+        <v>89200</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>131793</v>
+        <v>130855</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.2777295326094795</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.2308780335686007</v>
+        <v>0.2257046179905459</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.3334790161683295</v>
+        <v>0.3311056847591339</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>187</v>
@@ -3363,19 +3363,19 @@
         <v>197868</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>172873</v>
+        <v>172736</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>222488</v>
+        <v>221781</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.3045266984508869</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.2660576052162776</v>
+        <v>0.2658473585610879</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.3424180370272327</v>
+        <v>0.3413296075284066</v>
       </c>
     </row>
     <row r="41">
@@ -3392,19 +3392,19 @@
         <v>40694</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>31735</v>
+        <v>31328</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>52243</v>
+        <v>51866</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.1598654570639503</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1246704173983204</v>
+        <v>0.1230722479036154</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2052372338972779</v>
+        <v>0.2037579553193205</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>52</v>
@@ -3413,19 +3413,19 @@
         <v>67616</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>52612</v>
+        <v>52402</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>85918</v>
+        <v>86580</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.1710905583107067</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.1331239631453225</v>
+        <v>0.1325934566196657</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.217400743316975</v>
+        <v>0.2190757324827582</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>101</v>
@@ -3434,19 +3434,19 @@
         <v>108310</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>90558</v>
+        <v>90043</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>130321</v>
+        <v>129526</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.1666929991129452</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.1393728755474868</v>
+        <v>0.1385792902061521</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.2005685190016785</v>
+        <v>0.1993463394804627</v>
       </c>
     </row>
     <row r="42">
@@ -3463,19 +3463,19 @@
         <v>48220</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>37181</v>
+        <v>37813</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>59619</v>
+        <v>60202</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.1894329364792696</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.1460658357276687</v>
+        <v>0.1485504336171664</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.2342148889044148</v>
+        <v>0.2365046142364526</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>60</v>
@@ -3484,19 +3484,19 @@
         <v>81053</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>63588</v>
+        <v>64093</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>99994</v>
+        <v>99366</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.2050902592385598</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1608983077463802</v>
+        <v>0.1621751288078242</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.2530161995144162</v>
+        <v>0.2514276843628422</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>117</v>
@@ -3505,19 +3505,19 @@
         <v>129273</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>108055</v>
+        <v>109893</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>152021</v>
+        <v>153046</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1989563275974235</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1663014663538959</v>
+        <v>0.1691296399613247</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2339659451766696</v>
+        <v>0.2355445513452103</v>
       </c>
     </row>
     <row r="43">
@@ -3534,19 +3534,19 @@
         <v>37456</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>28432</v>
+        <v>27873</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>48044</v>
+        <v>48077</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.1471458619230761</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.111695044490499</v>
+        <v>0.1094997147835128</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.188742200217507</v>
+        <v>0.1888731078213973</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>58</v>
@@ -3555,19 +3555,19 @@
         <v>77380</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>58880</v>
+        <v>60760</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>96440</v>
+        <v>97167</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.1957963952717897</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.1489860712784533</v>
+        <v>0.1537430032597726</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.2440240477481987</v>
+        <v>0.2458644606206397</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>102</v>
@@ -3576,19 +3576,19 @@
         <v>114836</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>93868</v>
+        <v>93423</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>137060</v>
+        <v>134390</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.1767370036724969</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.1444664257840259</v>
+        <v>0.143782431597542</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.2109409603777199</v>
+        <v>0.2068319499387055</v>
       </c>
     </row>
     <row r="44">
@@ -3605,19 +3605,19 @@
         <v>40072</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>29865</v>
+        <v>30780</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>50945</v>
+        <v>52122</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.1574244267136843</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1173252848902372</v>
+        <v>0.1209179687307042</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2001367224691115</v>
+        <v>0.2047634728850137</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>44</v>
@@ -3626,19 +3626,19 @@
         <v>59397</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>44468</v>
+        <v>45234</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>77589</v>
+        <v>78798</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.1502932545694642</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.1125181955493825</v>
+        <v>0.1144559358871117</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.1963243297419877</v>
+        <v>0.1993834153867121</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>90</v>
@@ -3647,19 +3647,19 @@
         <v>99469</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>82653</v>
+        <v>81524</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>119153</v>
+        <v>120042</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.1530869711662475</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.1272067265500008</v>
+        <v>0.1254684970806295</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.1833806265698012</v>
+        <v>0.1847497959637361</v>
       </c>
     </row>
     <row r="45">
@@ -3751,19 +3751,19 @@
         <v>824624</v>
       </c>
       <c r="E46" s="5" t="n">
-        <v>773592</v>
+        <v>773848</v>
       </c>
       <c r="F46" s="5" t="n">
-        <v>875207</v>
+        <v>874248</v>
       </c>
       <c r="G46" s="6" t="n">
         <v>0.2450144489832675</v>
       </c>
       <c r="H46" s="6" t="n">
-        <v>0.2298518769288588</v>
+        <v>0.2299276948251139</v>
       </c>
       <c r="I46" s="6" t="n">
-        <v>0.2600439483743149</v>
+        <v>0.2597589000884593</v>
       </c>
       <c r="J46" s="5" t="n">
         <v>785</v>
@@ -3772,19 +3772,19 @@
         <v>833861</v>
       </c>
       <c r="L46" s="5" t="n">
-        <v>783081</v>
+        <v>785757</v>
       </c>
       <c r="M46" s="5" t="n">
-        <v>894361</v>
+        <v>887654</v>
       </c>
       <c r="N46" s="6" t="n">
         <v>0.2370795547128171</v>
       </c>
       <c r="O46" s="6" t="n">
-        <v>0.2226419365634334</v>
+        <v>0.2234026011507653</v>
       </c>
       <c r="P46" s="6" t="n">
-        <v>0.2542804913603072</v>
+        <v>0.2523737183874284</v>
       </c>
       <c r="Q46" s="5" t="n">
         <v>1581</v>
@@ -3793,19 +3793,19 @@
         <v>1658485</v>
       </c>
       <c r="S46" s="5" t="n">
-        <v>1588700</v>
+        <v>1590515</v>
       </c>
       <c r="T46" s="5" t="n">
-        <v>1731042</v>
+        <v>1729949</v>
       </c>
       <c r="U46" s="6" t="n">
         <v>0.2409596107594666</v>
       </c>
       <c r="V46" s="6" t="n">
-        <v>0.2308206107047135</v>
+        <v>0.2310842755167323</v>
       </c>
       <c r="W46" s="6" t="n">
-        <v>0.2515013336329888</v>
+        <v>0.2513424356294541</v>
       </c>
     </row>
     <row r="47">
@@ -3822,19 +3822,19 @@
         <v>635172</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>592568</v>
+        <v>586855</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>685948</v>
+        <v>683634</v>
       </c>
       <c r="G47" s="6" t="n">
         <v>0.1887240889582974</v>
       </c>
       <c r="H47" s="6" t="n">
-        <v>0.1760653086895574</v>
+        <v>0.1743678663659424</v>
       </c>
       <c r="I47" s="6" t="n">
-        <v>0.2038108244587855</v>
+        <v>0.2031231215082636</v>
       </c>
       <c r="J47" s="5" t="n">
         <v>602</v>
@@ -3843,19 +3843,19 @@
         <v>640194</v>
       </c>
       <c r="L47" s="5" t="n">
-        <v>598727</v>
+        <v>594129</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>689407</v>
+        <v>685817</v>
       </c>
       <c r="N47" s="6" t="n">
         <v>0.1820169549794115</v>
       </c>
       <c r="O47" s="6" t="n">
-        <v>0.1702272790795506</v>
+        <v>0.168920078064817</v>
       </c>
       <c r="P47" s="6" t="n">
-        <v>0.1960089019495969</v>
+        <v>0.194988336131009</v>
       </c>
       <c r="Q47" s="5" t="n">
         <v>1209</v>
@@ -3864,19 +3864,19 @@
         <v>1275366</v>
       </c>
       <c r="S47" s="5" t="n">
-        <v>1206471</v>
+        <v>1211045</v>
       </c>
       <c r="T47" s="5" t="n">
-        <v>1336247</v>
+        <v>1341654</v>
       </c>
       <c r="U47" s="6" t="n">
         <v>0.1852966528384464</v>
       </c>
       <c r="V47" s="6" t="n">
-        <v>0.1752868672795251</v>
+        <v>0.1759514196162792</v>
       </c>
       <c r="W47" s="6" t="n">
-        <v>0.1941419078016911</v>
+        <v>0.19492757652453</v>
       </c>
     </row>
     <row r="48">
@@ -3893,19 +3893,19 @@
         <v>723978</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>681680</v>
+        <v>676034</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>777186</v>
+        <v>771670</v>
       </c>
       <c r="G48" s="6" t="n">
         <v>0.21511040913632</v>
       </c>
       <c r="H48" s="6" t="n">
-        <v>0.2025424825192359</v>
+        <v>0.2008651154018733</v>
       </c>
       <c r="I48" s="6" t="n">
-        <v>0.2309197383482852</v>
+        <v>0.2292807586875332</v>
       </c>
       <c r="J48" s="5" t="n">
         <v>703</v>
@@ -3914,19 +3914,19 @@
         <v>745461</v>
       </c>
       <c r="L48" s="5" t="n">
-        <v>697576</v>
+        <v>696969</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>793821</v>
+        <v>794467</v>
       </c>
       <c r="N48" s="6" t="n">
         <v>0.2119458685518697</v>
       </c>
       <c r="O48" s="6" t="n">
-        <v>0.1983314695114033</v>
+        <v>0.1981590206958352</v>
       </c>
       <c r="P48" s="6" t="n">
-        <v>0.2256954539401241</v>
+        <v>0.2258792501097253</v>
       </c>
       <c r="Q48" s="5" t="n">
         <v>1391</v>
@@ -3935,19 +3935,19 @@
         <v>1469439</v>
       </c>
       <c r="S48" s="5" t="n">
-        <v>1397480</v>
+        <v>1396342</v>
       </c>
       <c r="T48" s="5" t="n">
-        <v>1540702</v>
+        <v>1534900</v>
       </c>
       <c r="U48" s="6" t="n">
         <v>0.2134932861243116</v>
       </c>
       <c r="V48" s="6" t="n">
-        <v>0.2030384736449698</v>
+        <v>0.2028730797064485</v>
       </c>
       <c r="W48" s="6" t="n">
-        <v>0.223846957874475</v>
+        <v>0.2230040496488379</v>
       </c>
     </row>
     <row r="49">
@@ -3964,19 +3964,19 @@
         <v>607169</v>
       </c>
       <c r="E49" s="5" t="n">
-        <v>560745</v>
+        <v>562518</v>
       </c>
       <c r="F49" s="5" t="n">
-        <v>653887</v>
+        <v>652102</v>
       </c>
       <c r="G49" s="6" t="n">
         <v>0.1804038114199495</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.1666101238619214</v>
+        <v>0.1671369097829647</v>
       </c>
       <c r="I49" s="6" t="n">
-        <v>0.1942846686444074</v>
+        <v>0.1937543978287712</v>
       </c>
       <c r="J49" s="5" t="n">
         <v>607</v>
@@ -3985,19 +3985,19 @@
         <v>641430</v>
       </c>
       <c r="L49" s="5" t="n">
-        <v>590766</v>
+        <v>596662</v>
       </c>
       <c r="M49" s="5" t="n">
-        <v>685907</v>
+        <v>687828</v>
       </c>
       <c r="N49" s="6" t="n">
         <v>0.1823683319641755</v>
       </c>
       <c r="O49" s="6" t="n">
-        <v>0.1679637726909912</v>
+        <v>0.1696400681378599</v>
       </c>
       <c r="P49" s="6" t="n">
-        <v>0.1950139172054201</v>
+        <v>0.1955601341299758</v>
       </c>
       <c r="Q49" s="5" t="n">
         <v>1188</v>
@@ -4006,19 +4006,19 @@
         <v>1248599</v>
       </c>
       <c r="S49" s="5" t="n">
-        <v>1191486</v>
+        <v>1182738</v>
       </c>
       <c r="T49" s="5" t="n">
-        <v>1322826</v>
+        <v>1309771</v>
       </c>
       <c r="U49" s="6" t="n">
         <v>0.1814077079713925</v>
       </c>
       <c r="V49" s="6" t="n">
-        <v>0.1731098385155982</v>
+        <v>0.1718387775771642</v>
       </c>
       <c r="W49" s="6" t="n">
-        <v>0.192192012786013</v>
+        <v>0.1902953489851615</v>
       </c>
     </row>
     <row r="50">
@@ -4035,19 +4035,19 @@
         <v>574669</v>
       </c>
       <c r="E50" s="5" t="n">
-        <v>534011</v>
+        <v>529844</v>
       </c>
       <c r="F50" s="5" t="n">
-        <v>622558</v>
+        <v>616987</v>
       </c>
       <c r="G50" s="6" t="n">
         <v>0.1707472415021656</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.1586667476873073</v>
+        <v>0.1574287707544421</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>0.1849760335715701</v>
+        <v>0.183320742203661</v>
       </c>
       <c r="J50" s="5" t="n">
         <v>616</v>
@@ -4056,19 +4056,19 @@
         <v>656276</v>
       </c>
       <c r="L50" s="5" t="n">
-        <v>607931</v>
+        <v>605522</v>
       </c>
       <c r="M50" s="5" t="n">
-        <v>705417</v>
+        <v>702221</v>
       </c>
       <c r="N50" s="6" t="n">
         <v>0.1865892897917263</v>
       </c>
       <c r="O50" s="6" t="n">
-        <v>0.1728440948600078</v>
+        <v>0.17215908796288</v>
       </c>
       <c r="P50" s="6" t="n">
-        <v>0.200560895328918</v>
+        <v>0.1996521889138319</v>
       </c>
       <c r="Q50" s="5" t="n">
         <v>1150</v>
@@ -4077,19 +4077,19 @@
         <v>1230945</v>
       </c>
       <c r="S50" s="5" t="n">
-        <v>1166854</v>
+        <v>1165007</v>
       </c>
       <c r="T50" s="5" t="n">
-        <v>1301806</v>
+        <v>1297881</v>
       </c>
       <c r="U50" s="6" t="n">
         <v>0.1788427423063828</v>
       </c>
       <c r="V50" s="6" t="n">
-        <v>0.169530959859641</v>
+        <v>0.1692627191404379</v>
       </c>
       <c r="W50" s="6" t="n">
-        <v>0.189138004800618</v>
+        <v>0.1885678532650978</v>
       </c>
     </row>
     <row r="51">
